--- a/dados_funcionarios.xlsx
+++ b/dados_funcionarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele\PycharmProjects\migracao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBD041-A3C1-4645-B0F2-AEB8F71669F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7514A6-7D23-4C3B-AADB-2263861A61F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="2820" windowWidth="19785" windowHeight="12585" xr2:uid="{04AD6AA6-1B35-48CD-8D03-F15C93FFE636}"/>
+    <workbookView xWindow="6420" yWindow="1935" windowWidth="19785" windowHeight="12585" xr2:uid="{04AD6AA6-1B35-48CD-8D03-F15C93FFE636}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43877809-276F-43F3-834B-8C1BB6083EF1}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>4</v>
